--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/72/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/72/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.04104104104104104</v>
+        <v>0.3680368036803681</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1501.501501501502</v>
+        <v>1590.12901290129</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02812812812812813</v>
+        <v>0.01634163416341634</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5065065065065065</v>
+        <v>0.1584158415841584</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>800.8008008008009</v>
+        <v>1817.391739173917</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>746.7467467467468</v>
+        <v>997.8397839783978</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>450.4504504504505</v>
+        <v>133.8802880288029</v>
       </c>
     </row>
   </sheetData>
